--- a/Рекомендации.xlsx
+++ b/Рекомендации.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\kursach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\kursach\qwe\Tending\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D64B54-89A7-416E-BDB6-4166C0DB5C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E4A116-D3E0-43B4-90FE-6D380BD2B5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,5 +1236,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>